--- a/data/search_session_stats_relevance_df_cleaned.xlsx
+++ b/data/search_session_stats_relevance_df_cleaned.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D307"/>
+  <dimension ref="A1:D345"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -457,18 +457,18 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Dove si trova l isola di plastica</t>
+          <t>le conseguenze negative della distruzione della foresta amazzonica</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -477,14 +477,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>I ghiacciai in via di estinzione</t>
+          <t>Dove si trova l isola di plastica</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -493,14 +493,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Le regole per tenere le spiagge pulite</t>
+          <t>I ghiacciai in via di estinzione</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -509,14 +509,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Le spiagge piÃ…Â« piÃƒÂ¹ pulite</t>
+          <t>Il ghiacciaio piÃ…Â« in via di estinzione</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D5" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -525,7 +525,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>tornado</t>
+          <t>Le regole per tenere le spiagge pulite</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -537,187 +537,187 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Quale nome si usa per definire una personache ha a cuore l</t>
+          <t>Le spiagge piÃ…Â« piÃƒÂ¹ pulite</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D7" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>perchÃƒÂ© gli orsi polari si stanno estinguendo sito babbanas</t>
+          <t>tornado</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>CosÃƒÂ© il buco nel azono</t>
+          <t>Quale nome si usa per definire una personache ha a cuore l</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Temperature estivepiu elevate del 2019</t>
+          <t>perchÃƒÂ© gli orsi polari si stanno estinguendo</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Isola diplastica cosÃƒÂ¨</t>
+          <t>perchÃƒÂ© gli orsi polari si stanno estinguendo sito babbanas</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Lisola di plastica cosa ÃƒÂ¨</t>
+          <t>tornado</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D12" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Nomi spiagge bandiera pulizia</t>
+          <t>BiodiversitÃƒÂ¡</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D13" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>PerchÃƒÂ¨ gli orsi polari diminuiscono?</t>
+          <t>CosÃƒÂ© il buco nel azono</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D14" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Peso bottiglia di plastica</t>
+          <t>Dove si trova lisola di plastica</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D15" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Quale ghiacciaio si sta sciogliendosi in modo preoccupante</t>
+          <t>Perche gli orsi polari diminuen</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D16" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Spiagge con la bandiera della pulizia</t>
+          <t>Quanto psa lisola di plastica</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D17" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>3 Spiagge con bandiera blu</t>
+          <t>Temperature estivepiu elevate del 2019</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -729,27 +729,27 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Spiagge con bandiera blu</t>
+          <t>Cose il buco nello zono?</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D19" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Temperature estive superano quelle misurate nel 2019</t>
+          <t>Isola di plastica posto</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -761,27 +761,27 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>spiagge bandiera blu 2019</t>
+          <t>Isola diplastica cosÃƒÂ¨</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D21" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>spiagge bandiera blu 2019 molise</t>
+          <t>Lisola di plastica cosa ÃƒÂ¨</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -793,11 +793,11 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Regole per tenere pulite le spiagge</t>
+          <t>Nomi spiagge bandiera pulizia</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -809,43 +809,43 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Spiagge con bandiera b</t>
+          <t>PerchÃƒÂ¨ gli orsi polari diminuiscono?</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D24" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Spiagge con bandiera blu</t>
+          <t>Peso bottiglia di plastica</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D25" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Spiagge con bandiera della loro pulizia</t>
+          <t>Quale ghiacciaio si sta sciogliendosi in modo preoccupante</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -857,91 +857,91 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Spiagge con bandiera di certificazione della loro pulizia</t>
+          <t>Spiagge con la bandiera della pulizia</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D27" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Causa della riduzione del lago aral</t>
+          <t>3 Spiagge con bandiera blu</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D28" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Isola di plastica</t>
+          <t>Spiagge con bandiera blu</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D29" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Spiagge con certificazione di pulizia</t>
+          <t>Temperature estive superano quelle misurate nel 2019</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D30" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Anno con temperature piÃƒÂ¹ alte</t>
+          <t>spiagge bandiera blu 2019</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D31" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>PerchÃƒÂ¨ gli orsi polari stanno diminuendo drasticamente di numero</t>
+          <t>spiagge bandiera blu 2019 molise</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -953,187 +953,187 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Quale nome si usa per definire una persona che ha a cuore ambiente</t>
+          <t>Regole per tenere pulite le spiagge</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D33" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>piramide egizia</t>
+          <t>Spiagge con bandiera b</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D34" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>piramidi</t>
+          <t>Spiagge con bandiera blu</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D35" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>qual ÃƒÂ¨ la piramide egizia piÃƒÂ¹ alta</t>
+          <t>Spiagge con bandiera della loro pulizia</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D36" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>417</v>
+        <v>404</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Conseguenze negative della distruzione della foresta amazzonica</t>
+          <t>Spiagge con bandiera di certificazione della loro pulizia</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D37" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>433</v>
+        <v>404</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Di cosa si occupa il WWF ?</t>
+          <t>Causa della riduzione del lago aral</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D38" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>433</v>
+        <v>404</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Dove si trova Ã„Â¾isola di plastica Cosa ÃƒÂ¨</t>
+          <t>Isola di plastica</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D39" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>433</v>
+        <v>404</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>netflix</t>
+          <t>Spiagge con certificazione di pulizia</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D40" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>433</v>
+        <v>410</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>perchÃƒÂ© gli orsi polari si stanno estinguendo</t>
+          <t>Anno con temperature piÃƒÂ¹ alte</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D41" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>435</v>
+        <v>410</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Qual ÃƒÂ¨ la causa della riduzione del lago Aral</t>
+          <t>PerchÃƒÂ¨ gli orsi polari stanno diminuendo drasticamente di numero</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D42" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>435</v>
+        <v>411</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Quale nome si usa per definire una persona che ha a cuore l</t>
+          <t>Quale nome si usa per definire una persona che ha a cuore ambiente</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D43" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>435</v>
+        <v>411</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>tornado velocita</t>
+          <t>piramide egizia</t>
         </is>
       </c>
       <c r="C44" t="n">
@@ -1145,107 +1145,107 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>436</v>
+        <v>411</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Cosa ÃƒÂ¨  Ocean  Cleanup</t>
+          <t>piramidi</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D45" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>436</v>
+        <v>411</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>cos e la biodiversitÃƒÂ</t>
+          <t>qual ÃƒÂ¨ la piramide egizia piÃƒÂ¹ alta</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D46" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>438</v>
+        <v>411</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Cosa ÃƒÂ¨ ocean cleanup? Italino</t>
+          <t>velocita tornado</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D47" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>438</v>
+        <v>417</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>tornado velocita</t>
+          <t>Conseguenze negative della distruzione della foresta amazzonica</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D48" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Di cosa si occupa il WWF?</t>
+          <t>Cosa ÃƒÂ¨ Ã„Â¾isola di plastica</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D49" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>quali sono gli altri nomi del tornado</t>
+          <t>Di cosa si occupa il WWF ?</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D50" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>velocitÃƒÂ  massima di un tornado</t>
+          <t>Dove si trova Ã„Â¾isola di plastica Cosa ÃƒÂ¨</t>
         </is>
       </c>
       <c r="C51" t="n">
@@ -1257,507 +1257,507 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>creazione di un tornado</t>
+          <t>netflix</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D52" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>effetti del tornado</t>
+          <t>perchÃƒÂ© gli orsi polari si stanno estinguendo</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>nascita di un tornado</t>
+          <t>persona che rispetta la natura</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D54" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>sinonimi di tornado</t>
+          <t>Qual ÃƒÂ¨ la causa della riduzione del lago Aral</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D55" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>sviluppo di un tornado</t>
+          <t>Quale nome si usa per definire una persona che ha a cuore l</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D56" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>sviluppo di un tornado e i suoi effetti</t>
+          <t>tornado velocita</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D57" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Quali sono le regole per tenere le spiagge pulite?</t>
+          <t>Cosa ÃƒÂ¨  Ocean  Cleanup</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D58" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>la piramide egizia piÃƒÂ¹ alta</t>
+          <t>Dove si trova Ã„Âº isola di plastica</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D59" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Di cosa si occupa la WWF</t>
+          <t>QuaÃ„Âº ÃƒÂ¨ la causa della riduzione del lago aral</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D60" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>tornado velocita</t>
+          <t>cos e la biodiversitÃƒÂ</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D61" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>448</v>
+        <v>438</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Cosa ÃƒÂ¨ ocean cleanup?</t>
+          <t>Cosa ÃƒÂ¨ ocean cleanup? Ita</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D62" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>448</v>
+        <v>438</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>mostro nero (uragano)</t>
+          <t>Cosa ÃƒÂ¨ ocean cleanup? Italino</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D63" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>448</v>
+        <v>438</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>sviluppo del tornado</t>
+          <t>Dove si trova Ã„Â¾isola di plastica?</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D64" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>465</v>
+        <v>438</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>di cosa si occupa il wwf</t>
+          <t>tornado velocita</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D65" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>466</v>
+        <v>440</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>A cosa serve frigorifero solidale</t>
+          <t>Quali sono le regole per tenere le spiagge pulite ?</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D66" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>466</v>
+        <v>441</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Cosa ÃƒÂ¨  Oceano cleanup</t>
+          <t>di cosa si occupa il wwf</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D67" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>467</v>
+        <v>441</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Quale ghiacciaio vicino a noi sta sciogliendosi in modo preoccupante?</t>
+          <t>animali a rischio di estinzione</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D68" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>467</v>
+        <v>441</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>cos</t>
+          <t>come si formano i vulcani?</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D69" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>468</v>
+        <v>441</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>CosÃƒÂ¨ ocean Cleanup?</t>
+          <t>come si trovano i vulcani?</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D70" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>468</v>
+        <v>441</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Qual ÃƒÂ¨ la causa della riduzione del lago Aral?</t>
+          <t>come viene classificato il leopardo delle nevi?</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D71" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>472</v>
+        <v>441</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Di che cosa si occupa il wwf</t>
+          <t>cosa possiamo fare per aiutare le specie in estinzione?</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D72" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>473</v>
+        <v>441</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>PerchÃƒÂ© gli orsi polari stanno diminuendo drasticamente di numero?</t>
+          <t>in quale stato si trova il vulcano piÃƒÂ¹ piccolo ?</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D73" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>498</v>
+        <v>441</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>ocean cleanup</t>
+          <t>in quale stato si trova il vulcano piÃƒÂ¹ piccolo del mondo?</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D74" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>392</v>
+        <v>441</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>tornado</t>
+          <t>in quale stato si trova il vulcano piÃƒÂ¹ piccolo?</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D75" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>394</v>
+        <v>441</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>tornado</t>
+          <t>qual ÃƒÂ¨ il vulcano  attivo piÃƒÂ¹ antico</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D76" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>407</v>
+        <v>441</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>tornado</t>
+          <t>qual ÃƒÂ¨ il vulcano  attivo piÃƒÂ¹ antico ?</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D77" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>412</v>
+        <v>441</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>tornado velocita</t>
+          <t>quanti sono gli esemplari rimasti di fantasma delle montagne ?</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D78" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>413</v>
+        <v>442</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>tornado veloce</t>
+          <t>Di cosa si occupa il WWF?</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D79" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>420</v>
+        <v>442</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>tornado mostro nero</t>
+          <t>quali sono gli altri nomi del tornado</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D80" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>420</v>
+        <v>442</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>tornado velocita mostro nero</t>
+          <t>velocitÃƒÂ  massima di un tornado</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D81" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>427</v>
+        <v>442</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>tornado velocita</t>
+          <t>creazione di un tornado</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D82" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>428</v>
+        <v>442</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>tornado mostro nero</t>
+          <t>effetti del tornado</t>
         </is>
       </c>
       <c r="C83" t="n">
@@ -1769,27 +1769,27 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>tornado mostro nero</t>
+          <t>nascita di un tornado</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D84" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>432</v>
+        <v>442</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>tornado velocita</t>
+          <t>sinonimi di tornado</t>
         </is>
       </c>
       <c r="C85" t="n">
@@ -1801,27 +1801,27 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>tornado mostro nero</t>
+          <t>sviluppo di un tornado</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D86" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>tornado mostro nero</t>
+          <t>sviluppo di un tornado e i suoi effetti</t>
         </is>
       </c>
       <c r="C87" t="n">
@@ -1833,11 +1833,11 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>animali a rischio di estinzione</t>
+          <t>Cosa ÃƒÂ¨ Ocean Cleanup ?</t>
         </is>
       </c>
       <c r="C88" t="n">
@@ -1849,11 +1849,11 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>come si formano i vulcani?</t>
+          <t>Quali sono le regole per tenere le spiagge pulite?</t>
         </is>
       </c>
       <c r="C89" t="n">
@@ -1865,11 +1865,11 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>come si trovano i vulcani?</t>
+          <t>la piramide egizia piÃƒÂ¹ alta</t>
         </is>
       </c>
       <c r="C90" t="n">
@@ -1881,43 +1881,43 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>come viene classificato il leopardo delle nevi?</t>
+          <t>Di cosa si occupa la WWF</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D91" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>cosa possiamo fare per aiutare le specie in estinzione?</t>
+          <t>tornado velocita</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D92" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>in quale stato si trova il vulcano piÃƒÂ¹ piccolo ?</t>
+          <t>Cosa ÃƒÂ¨ ocean cleanup?</t>
         </is>
       </c>
       <c r="C93" t="n">
@@ -1929,11 +1929,11 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>in quale stato si trova il vulcano piÃƒÂ¹ piccolo del mondo?</t>
+          <t>mostro nero (uragano)</t>
         </is>
       </c>
       <c r="C94" t="n">
@@ -1945,11 +1945,11 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>in quale stato si trova il vulcano piÃƒÂ¹ piccolo?</t>
+          <t>sviluppo del tornado</t>
         </is>
       </c>
       <c r="C95" t="n">
@@ -1961,11 +1961,11 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>441</v>
+        <v>465</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>qual ÃƒÂ¨ il vulcano  attivo piÃƒÂ¹ antico</t>
+          <t>Qual ÃƒÂ© la causa della riduzione del lago Aral</t>
         </is>
       </c>
       <c r="C96" t="n">
@@ -1977,603 +1977,603 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>441</v>
+        <v>465</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>qual ÃƒÂ¨ il vulcano  attivo piÃƒÂ¹ antico ?</t>
+          <t>di cosa si occupa il wwf</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D97" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>441</v>
+        <v>466</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>quanti sono gli esemplari rimasti di fantasma delle montagne ?</t>
+          <t>A cosa serve frigorifero solidale</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D98" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>445</v>
+        <v>466</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>tornado mostro nero</t>
+          <t>Cosa ÃƒÂ¨  Oceano cleanup</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D99" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>449</v>
+        <v>466</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>3 animali in estinzione</t>
+          <t>perchÃƒÂ¨ gli orsi polari stanno diminuendo drasticamente di numero ?</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D100" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>449</v>
+        <v>467</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>classificazione del leopardo delle nevi</t>
+          <t>Quale ghiacciaio vicino a noi sta sciogliendosi in modo preoccupante?</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D101" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>449</v>
+        <v>467</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>come possiamo aiutare le specie in estinzione</t>
+          <t>cos</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D102" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>449</v>
+        <v>468</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>quanti sono gli esemplari rimasti del fantasma delle montagne</t>
+          <t>CosÃƒÂ¨ ocean Cleanup?</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D103" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>450</v>
+        <v>468</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>come viene classificato il leopardo delle nevi</t>
+          <t>Qual ÃƒÂ¨ la causa della riduzione del lago Aral?</t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D104" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>450</v>
+        <v>469</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>cosa possiamo fare per aiutare le specie in estinzione</t>
+          <t>Di cosa si occupa il wwf?</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D105" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>450</v>
+        <v>469</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>cosa possiamo fare per aiutare le specie in estinzione?quali sono i rischi e come sia possibile aiutare la specie in via di estinzioni</t>
+          <t>Dove si trova Ã„Â¾ isola di plastica?cosa ÃƒÂ¨?</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D106" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>450</v>
+        <v>472</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>fantasmi delle montagne</t>
+          <t>Di che cosa si occupa il wwf</t>
         </is>
       </c>
       <c r="C107" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D107" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>450</v>
+        <v>473</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>trova tre animali a rischio di estinzione</t>
+          <t>Di cosa si occupa il wwf</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D108" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>452</v>
+        <v>473</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>animali a rischio di estinzione</t>
+          <t>PerchÃƒÂ© gli orsi polari stanno diminuendo drasticamente di numero?</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D109" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>452</v>
+        <v>473</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>classificazione leopardo delle nevi</t>
+          <t>Quale ghiacciaio si sta scioglendo in modo preoccupante</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D110" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>452</v>
+        <v>481</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>come aiutare le specie in estinzione</t>
+          <t>PerchÃƒÂ¨ gli orsi polari stanno diminuendo drasticamente di numero</t>
         </is>
       </c>
       <c r="C111" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D111" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>452</v>
+        <v>481</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>come aiutarele specie in estinzione</t>
+          <t>leopardo delle nevi</t>
         </is>
       </c>
       <c r="C112" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D112" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>452</v>
+        <v>481</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>esemplari rimasti del fantasma delle nevi</t>
+          <t>leopardo delle nevi classificazione</t>
         </is>
       </c>
       <c r="C113" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D113" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>452</v>
+        <v>481</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>esemplari rimasti di fantasma delle montagne</t>
+          <t>animali a rischio di estinzione</t>
         </is>
       </c>
       <c r="C114" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D114" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>453</v>
+        <v>481</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>come viene classificato il leopardo delle nevi</t>
+          <t>come aiutare le specie in estinzione</t>
         </is>
       </c>
       <c r="C115" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D115" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>453</v>
+        <v>481</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>fantasma delle montagne specie rimaste</t>
+          <t>come aiutare le specie in estinzione focus</t>
         </is>
       </c>
       <c r="C116" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D116" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>453</v>
+        <v>481</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>fantasma delle montagne wwf</t>
+          <t>come possiamo aiutare le specie in pericolo</t>
         </is>
       </c>
       <c r="C117" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D117" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>453</v>
+        <v>481</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>leopardo delle nevi</t>
+          <t>come viene classificata il leopardo delle nevi</t>
         </is>
       </c>
       <c r="C118" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D118" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>453</v>
+        <v>481</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>tre  animali a rischio estinzione</t>
+          <t>come viene classificato il leopardo delle nevi</t>
         </is>
       </c>
       <c r="C119" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D119" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>455</v>
+        <v>481</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>come si formano i vulcani?</t>
+          <t>come viene classificato il leopardo delle nevi?</t>
         </is>
       </c>
       <c r="C120" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D120" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>455</v>
+        <v>481</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>in quale stato si trova il vulcano piÃƒÂ¹ piccolo?</t>
+          <t>quante specie di leopardi delle nevi esistono</t>
         </is>
       </c>
       <c r="C121" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D121" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>455</v>
+        <v>498</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>qual ÃƒÂ¨ il vulcano attivo piÃƒÂ¹ antico del mondo?</t>
+          <t>Cosa e la isola di plastica</t>
         </is>
       </c>
       <c r="C122" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D122" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>455</v>
+        <v>498</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>tipo di eruzione piÃƒÂ¹ dannoso</t>
+          <t>ocean cleanup</t>
         </is>
       </c>
       <c r="C123" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D123" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>456</v>
+        <v>499</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>in quale stato si trova il vulcano piÃƒÂ¹ piccolo</t>
+          <t>Dove si trova Ã„Â¾isola di plastica</t>
         </is>
       </c>
       <c r="C124" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D124" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>456</v>
+        <v>500</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>qual ÃƒÂ¨ il vulcano piÃƒÂ¹ attivo piÃƒÂ¹ antico</t>
+          <t>CosÃƒÂ¨ Ã„Â¾isola di plastica</t>
         </is>
       </c>
       <c r="C125" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D125" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>456</v>
+        <v>390</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>quale tipologia di eruzione provoca piÃƒÂ¹ danni</t>
+          <t>tornado</t>
         </is>
       </c>
       <c r="C126" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D126" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>456</v>
+        <v>390</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>vulcani tipologia di eruzioni danni</t>
+          <t>CHE VELOCITA PUO RAGGIUNGERE UN TORNADO FENOMENO NATURALE</t>
         </is>
       </c>
       <c r="C127" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D127" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>461</v>
+        <v>390</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>dove si trova il Vulcano Piu  piccolo</t>
+          <t>QUALI SONO GLI ALTRI NOMI DI UN TORTANADO</t>
         </is>
       </c>
       <c r="C128" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D128" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>461</v>
+        <v>392</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>vulcano piÃƒÂ¹ antico attivo</t>
+          <t>tornado</t>
         </is>
       </c>
       <c r="C129" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D129" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>352</v>
+        <v>394</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>come si formano i vulcani</t>
+          <t>tornado</t>
         </is>
       </c>
       <c r="C130" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D130" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>354</v>
+        <v>407</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>come si formano i vulcani?</t>
+          <t>tornado</t>
         </is>
       </c>
       <c r="C131" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D131" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>354</v>
+        <v>412</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>un bambino sano quanto pasti fa al giorno</t>
+          <t>dove si trova la piramide di Cheope?</t>
         </is>
       </c>
       <c r="C132" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D132" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>355</v>
+        <v>412</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>quali sono i punti cardinali</t>
+          <t>tornado velocita</t>
         </is>
       </c>
       <c r="C133" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D133" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>355</v>
+        <v>412</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>quali sono le cose piÃƒÂ¹ importanti della moto</t>
+          <t>vulcano attivo antico</t>
         </is>
       </c>
       <c r="C134" t="n">
@@ -2585,43 +2585,43 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>355</v>
+        <v>413</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>quando inizia il periodo paleolitico e neolitico</t>
+          <t>tornado veloce</t>
         </is>
       </c>
       <c r="C135" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D135" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>355</v>
+        <v>413</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>zigurat</t>
+          <t>vulcano attivo antico</t>
         </is>
       </c>
       <c r="C136" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D136" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>356</v>
+        <v>418</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>trova 3 animali a rischio di estinzione</t>
+          <t>come si chiama Monica</t>
         </is>
       </c>
       <c r="C137" t="n">
@@ -2633,11 +2633,11 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>358</v>
+        <v>420</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>quali sono i punti cardinali</t>
+          <t>tornado</t>
         </is>
       </c>
       <c r="C138" t="n">
@@ -2649,11 +2649,11 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>361</v>
+        <v>420</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>come viene classificato il leopardo delle nevi?</t>
+          <t>tornado mostro nero</t>
         </is>
       </c>
       <c r="C139" t="n">
@@ -2665,11 +2665,11 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>361</v>
+        <v>420</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>quali sono i punti cardinali?</t>
+          <t>tornado velocita</t>
         </is>
       </c>
       <c r="C140" t="n">
@@ -2681,27 +2681,27 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>362</v>
+        <v>420</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>quali sono gli animali in estinzione?</t>
+          <t>tornado velocita mostro nero</t>
         </is>
       </c>
       <c r="C141" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D141" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>363</v>
+        <v>427</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>dove si trova la piramide di cheope</t>
+          <t>tornado velocita</t>
         </is>
       </c>
       <c r="C142" t="n">
@@ -2713,27 +2713,27 @@
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>363</v>
+        <v>428</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>immagine piramide egizia</t>
+          <t>tornado mostro nero</t>
         </is>
       </c>
       <c r="C143" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D143" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>364</v>
+        <v>431</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>gli animali in estinzione</t>
+          <t>tornado mostro nero</t>
         </is>
       </c>
       <c r="C144" t="n">
@@ -2745,43 +2745,43 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>364</v>
+        <v>432</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>i vulcani</t>
+          <t>tornado velocita</t>
         </is>
       </c>
       <c r="C145" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D145" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>364</v>
+        <v>434</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>i vulcani piÃƒÂ¹ grandi del mondo</t>
+          <t>tornado mostro nero</t>
         </is>
       </c>
       <c r="C146" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D146" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>364</v>
+        <v>439</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>la piramide piÃƒÂ¹ alta</t>
+          <t>tornado mostro nero</t>
         </is>
       </c>
       <c r="C147" t="n">
@@ -2793,59 +2793,59 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>364</v>
+        <v>445</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>punti cardinali</t>
+          <t>tornado mostro nero</t>
         </is>
       </c>
       <c r="C148" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D148" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>364</v>
+        <v>449</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>qual e il vulcano piÃƒÂ¹ grande</t>
+          <t>3 animali in estinzione</t>
         </is>
       </c>
       <c r="C149" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D149" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>364</v>
+        <v>449</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>qual ÃƒÂ¨ la piramide egizia piÃƒÂ¹ alta?</t>
+          <t>classificazione del leopardo delle nevi</t>
         </is>
       </c>
       <c r="C150" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D150" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>367</v>
+        <v>449</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>come scaricare musica da youtube</t>
+          <t>come possiamo aiutare le specie in estinzione</t>
         </is>
       </c>
       <c r="C151" t="n">
@@ -2857,27 +2857,27 @@
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>369</v>
+        <v>449</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>chi e il padre di micerino</t>
+          <t>quanti sono gli esemplari rimasti del fantasma delle montagne</t>
         </is>
       </c>
       <c r="C152" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D152" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>369</v>
+        <v>450</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>come venivano costruite le piramidi egizie</t>
+          <t>come viene classificato il leopardo delle nevi</t>
         </is>
       </c>
       <c r="C153" t="n">
@@ -2889,91 +2889,91 @@
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>369</v>
+        <v>450</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>qual e la piramide egizia piu alta</t>
+          <t>cosa possiamo fare per aiutare le specie in estinzione</t>
         </is>
       </c>
       <c r="C154" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D154" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>369</v>
+        <v>450</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>quanto e alta la tomba del padre di micerino</t>
+          <t>cosa possiamo fare per aiutare le specie in estinzione?quali sono i rischi e come sia possibile aiutare la specie in via di estinzioni</t>
         </is>
       </c>
       <c r="C155" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D155" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>369</v>
+        <v>450</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>quanto e alta la tomba di cheope</t>
+          <t>fantasmi delle montagne</t>
         </is>
       </c>
       <c r="C156" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D156" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>369</v>
+        <v>450</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>velociraptor dove e quando e vissuto</t>
+          <t>trova tre animali a rischio di estinzione</t>
         </is>
       </c>
       <c r="C157" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D157" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>370</v>
+        <v>452</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>quali sono le regole principali della pallavolo</t>
+          <t>animali a rischio di estinzione</t>
         </is>
       </c>
       <c r="C158" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D158" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>370</v>
+        <v>452</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>la regione con piu` squadre di pallavolo</t>
+          <t>classificazione leopardo delle nevi</t>
         </is>
       </c>
       <c r="C159" t="n">
@@ -2985,27 +2985,27 @@
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>370</v>
+        <v>452</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>qual e la piramide egizia piu` alta?</t>
+          <t>come aiutare le specie in estinzione</t>
         </is>
       </c>
       <c r="C160" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D160" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>370</v>
+        <v>452</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>quanti giocatri ci sono in ogni squadra di ginnastica</t>
+          <t>come aiutarele specie in estinzione</t>
         </is>
       </c>
       <c r="C161" t="n">
@@ -3017,11 +3017,11 @@
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>370</v>
+        <v>452</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>quanti giocatri ci sono in ogni squadra di pallavolo</t>
+          <t>esemplari rimasti del fantasma delle nevi</t>
         </is>
       </c>
       <c r="C162" t="n">
@@ -3033,39 +3033,39 @@
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>370</v>
+        <v>452</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>regioni italÃƒÂ©8iane  con piu` squadre di pallavolo</t>
+          <t>esemplari rimasti di fantasma delle montagne</t>
         </is>
       </c>
       <c r="C163" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D163" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>371</v>
+        <v>452</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>quanti leopardi delle nevi sono rimasti</t>
+          <t>pericoli per le specie animali</t>
         </is>
       </c>
       <c r="C164" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D164" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>371</v>
+        <v>453</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
@@ -3073,19 +3073,19 @@
         </is>
       </c>
       <c r="C165" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D165" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>371</v>
+        <v>453</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>cosa possiamo fare per salvare gli animali in estinzione</t>
+          <t>fantasma delle montagne specie rimaste</t>
         </is>
       </c>
       <c r="C166" t="n">
@@ -3097,123 +3097,123 @@
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>371</v>
+        <v>453</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>cosa sono fantasma delle montagne</t>
+          <t>fantasma delle montagne wwf</t>
         </is>
       </c>
       <c r="C167" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D167" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>373</v>
+        <v>453</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>classificazione del Leopardo delle nevi</t>
+          <t>leopardo delle nevi</t>
         </is>
       </c>
       <c r="C168" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D168" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>373</v>
+        <v>453</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>classificazione del panthera uncia</t>
+          <t>tre  animali a rischio estinzione</t>
         </is>
       </c>
       <c r="C169" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D169" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>373</v>
+        <v>455</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>classificazione del panthera uncia in italiano</t>
+          <t>come si formano i vulcani?</t>
         </is>
       </c>
       <c r="C170" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D170" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>373</v>
+        <v>455</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>come possiamo aiutare le specie in pericolo</t>
+          <t>in quale stato si trova il vulcano piÃƒÂ¹ piccolo?</t>
         </is>
       </c>
       <c r="C171" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D171" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>373</v>
+        <v>455</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>come si puo aiutare le specie in pericolo</t>
+          <t>qual ÃƒÂ¨ il vulcano attivo piÃƒÂ¹ antico del mondo?</t>
         </is>
       </c>
       <c r="C172" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D172" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>373</v>
+        <v>455</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>fantasma della montagna</t>
+          <t>tipo di eruzione piÃƒÂ¹ dannoso</t>
         </is>
       </c>
       <c r="C173" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D173" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>373</v>
+        <v>456</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>tre animali in via di estinzione</t>
+          <t>in quale stato si trova il vulcano piÃƒÂ¹ piccolo</t>
         </is>
       </c>
       <c r="C174" t="n">
@@ -3225,27 +3225,27 @@
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>373</v>
+        <v>456</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>come si localizza un punto su una mappa</t>
+          <t>qual ÃƒÂ¨ il vulcano piÃƒÂ¹ attivo piÃƒÂ¹ antico</t>
         </is>
       </c>
       <c r="C175" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D175" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>373</v>
+        <v>456</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>quale stella utilizzano gli abitanti dell emisfero boreale per orientarsi</t>
+          <t>quale tipologia di eruzione provoca piÃƒÂ¹ danni</t>
         </is>
       </c>
       <c r="C176" t="n">
@@ -3257,59 +3257,59 @@
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>373</v>
+        <v>456</v>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>quali sono le coordinate geografiche</t>
+          <t>vulcani tipologia di eruzioni danni</t>
         </is>
       </c>
       <c r="C177" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D177" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>374</v>
+        <v>461</v>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>classificazione delleopardo delle nevi</t>
+          <t>dove si trova il Vulcano Piu  piccolo</t>
         </is>
       </c>
       <c r="C178" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D178" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>374</v>
+        <v>461</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>cosa fa l IUCN per aiutare gli animali in via di estinzione</t>
+          <t>vulcano piÃƒÂ¹ antico attivo</t>
         </is>
       </c>
       <c r="C179" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D179" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>374</v>
+        <v>352</v>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>tre animali a rischio estinzione</t>
+          <t>come si formano i vulcani</t>
         </is>
       </c>
       <c r="C180" t="n">
@@ -3321,11 +3321,11 @@
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>374</v>
+        <v>354</v>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>wwf in via di estinzione</t>
+          <t>come si formano i vulcani?</t>
         </is>
       </c>
       <c r="C181" t="n">
@@ -3337,11 +3337,11 @@
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>374</v>
+        <v>354</v>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>chi era san giuseppe</t>
+          <t>un bambino sano quanto pasti fa al giorno</t>
         </is>
       </c>
       <c r="C182" t="n">
@@ -3353,11 +3353,11 @@
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>374</v>
+        <v>355</v>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>come e nata la festa del papa</t>
+          <t>quali sono i punti cardinali</t>
         </is>
       </c>
       <c r="C183" t="n">
@@ -3369,11 +3369,11 @@
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>374</v>
+        <v>355</v>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>quali sono due ingredienti del dolce tipico della festa del papa</t>
+          <t>quali sono le cose piÃƒÂ¹ importanti della moto</t>
         </is>
       </c>
       <c r="C184" t="n">
@@ -3385,59 +3385,59 @@
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>375</v>
+        <v>355</v>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>FANTASMA DELLE MONTAGNE</t>
+          <t>quando inizia il periodo paleolitico e neolitico</t>
         </is>
       </c>
       <c r="C185" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D185" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>375</v>
+        <v>355</v>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>quanti esemplari di leopardo delle nevi sono rimasti</t>
+          <t>zigurat</t>
         </is>
       </c>
       <c r="C186" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D186" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>375</v>
+        <v>356</v>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>quanti specie di FANTASMA DELLE MONTAGNE sono rimasti</t>
+          <t>trova 3 animali a rischio di estinzione</t>
         </is>
       </c>
       <c r="C187" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D187" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>375</v>
+        <v>358</v>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>qual e la regione con piÃƒÂ¹ squadre di basket</t>
+          <t>quali sono i punti cardinali</t>
         </is>
       </c>
       <c r="C188" t="n">
@@ -3449,11 +3449,11 @@
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>375</v>
+        <v>361</v>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>quale squadra di basket ha piÃƒÂ¹ anni di attivitÃƒÂ</t>
+          <t>come viene classificato il leopardo delle nevi?</t>
         </is>
       </c>
       <c r="C189" t="n">
@@ -3465,11 +3465,11 @@
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>375</v>
+        <v>361</v>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>quali sono le regole del basket</t>
+          <t>quali sono i punti cardinali?</t>
         </is>
       </c>
       <c r="C190" t="n">
@@ -3481,11 +3481,11 @@
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>375</v>
+        <v>362</v>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>quanti giocatori ci sono in ogni squadra di basket</t>
+          <t>quali sono gli animali in estinzione?</t>
         </is>
       </c>
       <c r="C191" t="n">
@@ -3497,11 +3497,11 @@
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>378</v>
+        <v>363</v>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>qual e la regione con piÃƒÂ¹ squadre di calcio d italia</t>
+          <t>dove si trova la piramide di cheope</t>
         </is>
       </c>
       <c r="C192" t="n">
@@ -3513,11 +3513,11 @@
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>380</v>
+        <v>363</v>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>che velocitÃƒÂ  viaggia un tornado</t>
+          <t>immagine piramide egizia</t>
         </is>
       </c>
       <c r="C193" t="n">
@@ -3529,11 +3529,11 @@
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>380</v>
+        <v>364</v>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>cosa e il tornado mostro nero</t>
+          <t>gli animali in estinzione</t>
         </is>
       </c>
       <c r="C194" t="n">
@@ -3545,75 +3545,75 @@
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>380</v>
+        <v>364</v>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>qual e il torneo piÃƒÂ¹ vecchio di tennis</t>
+          <t>i vulcani</t>
         </is>
       </c>
       <c r="C195" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D195" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>380</v>
+        <v>364</v>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>quali sono le regole del tennis</t>
+          <t>i vulcani piÃƒÂ¹ grandi del mondo</t>
         </is>
       </c>
       <c r="C196" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D196" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>380</v>
+        <v>364</v>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>quando e nato il tennis</t>
+          <t>la piramide piÃƒÂ¹ alta</t>
         </is>
       </c>
       <c r="C197" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D197" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>383</v>
+        <v>364</v>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>come venivano costruite le piramidi egizie</t>
+          <t>punti cardinali</t>
         </is>
       </c>
       <c r="C198" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D198" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>383</v>
+        <v>364</v>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>padre di Micerino</t>
+          <t>qual e il vulcano piÃƒÂ¹ grande</t>
         </is>
       </c>
       <c r="C199" t="n">
@@ -3625,91 +3625,91 @@
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>383</v>
+        <v>364</v>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>quanto ÃƒÂ¨ alta la tomba di Chefren</t>
+          <t>qual ÃƒÂ¨ la piramide egizia piÃƒÂ¹ alta?</t>
         </is>
       </c>
       <c r="C200" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D200" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>383</v>
+        <v>367</v>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>i vantaggi della dieta mediterranea</t>
+          <t>come scaricare musica da youtube</t>
         </is>
       </c>
       <c r="C201" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D201" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>383</v>
+        <v>369</v>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>in quanti pasti si deve suddividere la quantitÃƒÂ  di cibo di una ragazza sana</t>
+          <t>chi e il padre di micerino</t>
         </is>
       </c>
       <c r="C202" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D202" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>383</v>
+        <v>369</v>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>quali cibi forniscono carboidrati</t>
+          <t>come venivano costruite le piramidi egizie</t>
         </is>
       </c>
       <c r="C203" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D203" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>384</v>
+        <v>369</v>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Chi era il padre di Micerino  ?</t>
+          <t>qual e la piramide egizia piu alta</t>
         </is>
       </c>
       <c r="C204" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D204" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>384</v>
+        <v>369</v>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Il figlio di Chefren</t>
+          <t>quanto e alta la tomba del padre di micerino</t>
         </is>
       </c>
       <c r="C205" t="n">
@@ -3721,27 +3721,27 @@
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>384</v>
+        <v>369</v>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Il padre di Micerino</t>
+          <t>quanto e alta la tomba di cheope</t>
         </is>
       </c>
       <c r="C206" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D206" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>384</v>
+        <v>369</v>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Quanto e alta la tomba di Cheope?</t>
+          <t>velociraptor dove e quando e vissuto</t>
         </is>
       </c>
       <c r="C207" t="n">
@@ -3753,59 +3753,59 @@
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>384</v>
+        <v>370</v>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Si e scoperto il padre di Micerino?</t>
+          <t>quali sono le regole principali della pallavolo</t>
         </is>
       </c>
       <c r="C208" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D208" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>384</v>
+        <v>370</v>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Come si costruivano le piramidi Egizie?</t>
+          <t>la regione con piu` squadre di pallavolo</t>
         </is>
       </c>
       <c r="C209" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D209" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>384</v>
+        <v>370</v>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Dove si trova la piramide di Cheope?</t>
+          <t>qual e la piramide egizia piu` alta?</t>
         </is>
       </c>
       <c r="C210" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D210" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>384</v>
+        <v>370</v>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Quale e la piramide egizia piu` alta ?</t>
+          <t>quanti giocatri ci sono in ogni squadra di ginnastica</t>
         </is>
       </c>
       <c r="C211" t="n">
@@ -3817,11 +3817,11 @@
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>384</v>
+        <v>370</v>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Quanto era alta la tomba del padre di Micerino?</t>
+          <t>quanti giocatri ci sono in ogni squadra di pallavolo</t>
         </is>
       </c>
       <c r="C212" t="n">
@@ -3833,11 +3833,11 @@
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>384</v>
+        <v>370</v>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>come si costruisce una piramide egizia?</t>
+          <t>regioni italÃƒÂ©8iane  con piu` squadre di pallavolo</t>
         </is>
       </c>
       <c r="C213" t="n">
@@ -3849,27 +3849,27 @@
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>384</v>
+        <v>371</v>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>come si costruiscono delle piramidi Egizie?</t>
+          <t>quanti leopardi delle nevi sono rimasti</t>
         </is>
       </c>
       <c r="C214" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D214" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>384</v>
+        <v>371</v>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>come si formano i vulcani</t>
+          <t>come viene classificato il leopardo delle nevi</t>
         </is>
       </c>
       <c r="C215" t="n">
@@ -3881,11 +3881,11 @@
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>384</v>
+        <v>371</v>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>in quale stato si trova il vulcano piÃƒÂ¹ piccolo</t>
+          <t>cosa possiamo fare per salvare gli animali in estinzione</t>
         </is>
       </c>
       <c r="C216" t="n">
@@ -3897,11 +3897,11 @@
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>384</v>
+        <v>371</v>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>qual e il vulcano attivo piÃƒÂ¹ antico</t>
+          <t>cosa sono fantasma delle montagne</t>
         </is>
       </c>
       <c r="C217" t="n">
@@ -3913,75 +3913,75 @@
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>quali sono i tipi di eruzione</t>
+          <t>classificazione del Leopardo delle nevi</t>
         </is>
       </c>
       <c r="C218" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D218" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>come viene classificato il leopardo delle nevi?</t>
+          <t>classificazione del panthera uncia</t>
         </is>
       </c>
       <c r="C219" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D219" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>qual e la squadra piu anticha del calcio</t>
+          <t>classificazione del panthera uncia in italiano</t>
         </is>
       </c>
       <c r="C220" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D220" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>quanti sono gli esemplari rimasti di fantasma delle montagne?</t>
+          <t>come possiamo aiutare le specie in pericolo</t>
         </is>
       </c>
       <c r="C221" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D221" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>tre animali a rischio di estinzione</t>
+          <t>come si puo aiutare le specie in pericolo</t>
         </is>
       </c>
       <c r="C222" t="n">
@@ -3993,27 +3993,27 @@
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>un fantasma delle montagne foto</t>
+          <t>fantasma della montagna</t>
         </is>
       </c>
       <c r="C223" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D223" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>le regole del motocross</t>
+          <t>tre animali in via di estinzione</t>
         </is>
       </c>
       <c r="C224" t="n">
@@ -4025,11 +4025,11 @@
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>che velocita puo raggiungere un tornado</t>
+          <t>come si localizza un punto su una mappa</t>
         </is>
       </c>
       <c r="C225" t="n">
@@ -4041,11 +4041,11 @@
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>come si sviluppa un tornado e i suoi effetti</t>
+          <t>quale stella utilizzano gli abitanti dell emisfero boreale per orientarsi</t>
         </is>
       </c>
       <c r="C226" t="n">
@@ -4057,59 +4057,59 @@
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>quali sono gli altri nomi del tornado</t>
+          <t>quali sono le coordinate geografiche</t>
         </is>
       </c>
       <c r="C227" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D227" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>come erano costruite le piramidi egizie</t>
+          <t>classificazione delleopardo delle nevi</t>
         </is>
       </c>
       <c r="C228" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D228" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>cosa possiamo fare per salvare gli animali a rischio di estintione</t>
+          <t>cosa fa l IUCN per aiutare gli animali in via di estinzione</t>
         </is>
       </c>
       <c r="C229" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D229" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>dove si trova la piramide di cheope</t>
+          <t>tre animali a rischio estinzione</t>
         </is>
       </c>
       <c r="C230" t="n">
@@ -4121,59 +4121,59 @@
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>quale la piramide egizia piu alta</t>
+          <t>wwf in via di estinzione</t>
         </is>
       </c>
       <c r="C231" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D231" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>quanto ÃƒÂ¨ alta la tomba del padre di micerino</t>
+          <t>chi era san giuseppe</t>
         </is>
       </c>
       <c r="C232" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D232" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>il leopardo delle nevi e invertebrato o vertebrato</t>
+          <t>come e nata la festa del papa</t>
         </is>
       </c>
       <c r="C233" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D233" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>come possiamo aiutare gli animali in estinzione</t>
+          <t>quali sono due ingredienti del dolce tipico della festa del papa</t>
         </is>
       </c>
       <c r="C234" t="n">
@@ -4185,75 +4185,75 @@
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>quanti sono i fantasmi delle montagne</t>
+          <t>FANTASMA DELLE MONTAGNE</t>
         </is>
       </c>
       <c r="C235" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D235" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>tre animal a rischio estinzione</t>
+          <t>quanti esemplari di leopardo delle nevi sono rimasti</t>
         </is>
       </c>
       <c r="C236" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D236" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>388</v>
+        <v>375</v>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>vulcano attivo piu atlantico</t>
+          <t>quanti specie di FANTASMA DELLE MONTAGNE sono rimasti</t>
         </is>
       </c>
       <c r="C237" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D237" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>388</v>
+        <v>375</v>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>come si sviluppa un tornado</t>
+          <t>qual e la regione con piÃƒÂ¹ squadre di basket</t>
         </is>
       </c>
       <c r="C238" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D238" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>388</v>
+        <v>375</v>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>il mostro nero tornado che cos ÃƒÂ¨</t>
+          <t>quale squadra di basket ha piÃƒÂ¹ anni di attivitÃƒÂ</t>
         </is>
       </c>
       <c r="C239" t="n">
@@ -4265,27 +4265,27 @@
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Micerino</t>
+          <t>quali sono le regole del basket</t>
         </is>
       </c>
       <c r="C240" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D240" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>come si fa una piramide egizia</t>
+          <t>quanti giocatori ci sono in ogni squadra di basket</t>
         </is>
       </c>
       <c r="C241" t="n">
@@ -4297,11 +4297,11 @@
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>389</v>
+        <v>378</v>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>dove si trova la piramide di cheope</t>
+          <t>qual e la regione con piÃƒÂ¹ squadre di calcio d italia</t>
         </is>
       </c>
       <c r="C242" t="n">
@@ -4313,11 +4313,11 @@
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>qual ÃƒÂ© la piramide egizia piu alta</t>
+          <t>che velocitÃƒÂ  viaggia un tornado</t>
         </is>
       </c>
       <c r="C243" t="n">
@@ -4329,11 +4329,11 @@
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>quanto ÃƒÂ¨ alta la tomba del padre di  micerino</t>
+          <t>cosa e il tornado mostro nero</t>
         </is>
       </c>
       <c r="C244" t="n">
@@ -4345,11 +4345,11 @@
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>quanto ÃƒÂ¨ alta la tomba del padre micerino</t>
+          <t>qual e il torneo piÃƒÂ¹ vecchio di tennis</t>
         </is>
       </c>
       <c r="C245" t="n">
@@ -4361,11 +4361,11 @@
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>quanto ÃƒÂ¨ alta la tomba di micerino</t>
+          <t>quali sono le regole del tennis</t>
         </is>
       </c>
       <c r="C246" t="n">
@@ -4377,43 +4377,43 @@
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>quanto ÃƒÂ©l alta la tomba di micerino</t>
+          <t>quando e nato il tennis</t>
         </is>
       </c>
       <c r="C247" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D247" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>cosa possiamo fare per aiutare le specie in estinzione</t>
+          <t>come venivano costruite le piramidi egizie</t>
         </is>
       </c>
       <c r="C248" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D248" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>quanti esemplari di leopardo delle nevi sono rimasti</t>
+          <t>padre di Micerino</t>
         </is>
       </c>
       <c r="C249" t="n">
@@ -4425,187 +4425,187 @@
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>CHE VELOCITA PUO RAGGIUNGERE UN TORNADO FENOMENO NATURALE</t>
+          <t>quanto ÃƒÂ¨ alta la tomba di Chefren</t>
         </is>
       </c>
       <c r="C250" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D250" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>QUALI SONO GLI ALTRI NOMI DI UN TORTANADO</t>
+          <t>i vantaggi della dieta mediterranea</t>
         </is>
       </c>
       <c r="C251" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D251" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>470</v>
+        <v>383</v>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>esemplari fantasma delle montagne</t>
+          <t>in quanti pasti si deve suddividere la quantitÃƒÂ  di cibo di una ragazza sana</t>
         </is>
       </c>
       <c r="C252" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D252" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>470</v>
+        <v>383</v>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>animali a rischio di estinzione</t>
+          <t>quali cibi forniscono carboidrati</t>
         </is>
       </c>
       <c r="C253" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D253" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>470</v>
+        <v>384</v>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>azioni per evitare estinzione degli animali</t>
+          <t>Chi era il padre di Micerino  ?</t>
         </is>
       </c>
       <c r="C254" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D254" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>470</v>
+        <v>384</v>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>la classificazione del leopardo delle nevi</t>
+          <t>Il figlio di Chefren</t>
         </is>
       </c>
       <c r="C255" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D255" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>470</v>
+        <v>384</v>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>quali sono  gli esemplari rimasti di fantasma delle nevi</t>
+          <t>Il padre di Micerino</t>
         </is>
       </c>
       <c r="C256" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D256" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>470</v>
+        <v>384</v>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>quanti sono gli esemplari rimasti di fantasma delle nevi</t>
+          <t>Quanto e alta la tomba di Cheope?</t>
         </is>
       </c>
       <c r="C257" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D257" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>470</v>
+        <v>384</v>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>tigre bianca</t>
+          <t>Si e scoperto il padre di Micerino?</t>
         </is>
       </c>
       <c r="C258" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D258" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>471</v>
+        <v>384</v>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>come si formano i vulcani</t>
+          <t>Come si costruivano le piramidi Egizie?</t>
         </is>
       </c>
       <c r="C259" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D259" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>471</v>
+        <v>384</v>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>come si ÃƒÂ© formato un vulcano</t>
+          <t>Dove si trova la piramide di Cheope?</t>
         </is>
       </c>
       <c r="C260" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D260" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>471</v>
+        <v>384</v>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>in quale stato si trova il vulcano piÃƒÂ¹ piccolo</t>
+          <t>Quale e la piramide egizia piu` alta ?</t>
         </is>
       </c>
       <c r="C261" t="n">
@@ -4617,11 +4617,11 @@
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>471</v>
+        <v>384</v>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>qual ÃƒÂ¨ il vulcano attivo piÃƒÂ¹ antico</t>
+          <t>Quanto era alta la tomba del padre di Micerino?</t>
         </is>
       </c>
       <c r="C262" t="n">
@@ -4633,43 +4633,43 @@
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>475</v>
+        <v>384</v>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>animali a rischio di estinzione</t>
+          <t>come si costruisce una piramide egizia?</t>
         </is>
       </c>
       <c r="C263" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D263" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>475</v>
+        <v>384</v>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>come aiutare gli animali in via di estinzion^?</t>
+          <t>come si costruiscono delle piramidi Egizie?</t>
         </is>
       </c>
       <c r="C264" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D264" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>475</v>
+        <v>384</v>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>come viene classificato il leopardo delle nevi ?</t>
+          <t>come si formano i vulcani</t>
         </is>
       </c>
       <c r="C265" t="n">
@@ -4681,27 +4681,27 @@
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>475</v>
+        <v>384</v>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>come viene classificato il leopardo delle nevi?</t>
+          <t>in quale stato si trova il vulcano piÃƒÂ¹ piccolo</t>
         </is>
       </c>
       <c r="C266" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D266" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>475</v>
+        <v>384</v>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>cosa possiamo fare per aiutare la specie in estinzione?</t>
+          <t>qual e il vulcano attivo piÃƒÂ¹ antico</t>
         </is>
       </c>
       <c r="C267" t="n">
@@ -4713,27 +4713,27 @@
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>476</v>
+        <v>384</v>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>quale tipologia di eruzione provoca piÃƒÂ¹ danni?</t>
+          <t>quali sono i tipi di eruzione</t>
         </is>
       </c>
       <c r="C268" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D268" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>479</v>
+        <v>385</v>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>che velcitÃƒÂ  puÃƒÂ² raggiungere un tornado</t>
+          <t>come viene classificato il leopardo delle nevi?</t>
         </is>
       </c>
       <c r="C269" t="n">
@@ -4745,43 +4745,43 @@
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>479</v>
+        <v>385</v>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>come si forma un tornado</t>
+          <t>qual e la squadra piu anticha del calcio</t>
         </is>
       </c>
       <c r="C270" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D270" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>479</v>
+        <v>385</v>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>dove e quando avvenÃƒÂ¬ il mostro nero( tornado)</t>
+          <t>quanti sono gli esemplari rimasti di fantasma delle montagne?</t>
         </is>
       </c>
       <c r="C271" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D271" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>481</v>
+        <v>385</v>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>leopardo delle nevi</t>
+          <t>tre animali a rischio di estinzione</t>
         </is>
       </c>
       <c r="C272" t="n">
@@ -4793,11 +4793,11 @@
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>481</v>
+        <v>385</v>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>leopardo delle nevi classificazione</t>
+          <t>un fantasma delle montagne foto</t>
         </is>
       </c>
       <c r="C273" t="n">
@@ -4809,27 +4809,27 @@
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>481</v>
+        <v>385</v>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>animali a rischio di estinzione</t>
+          <t>le regole del motocross</t>
         </is>
       </c>
       <c r="C274" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D274" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>481</v>
+        <v>386</v>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>come aiutare le specie in estinzione</t>
+          <t>che velocita puo raggiungere un tornado</t>
         </is>
       </c>
       <c r="C275" t="n">
@@ -4841,11 +4841,11 @@
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>481</v>
+        <v>386</v>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>come aiutare le specie in estinzione focus</t>
+          <t>come si sviluppa un tornado e i suoi effetti</t>
         </is>
       </c>
       <c r="C276" t="n">
@@ -4857,11 +4857,11 @@
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>481</v>
+        <v>386</v>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>come possiamo aiutare le specie in pericolo</t>
+          <t>quali sono gli altri nomi del tornado</t>
         </is>
       </c>
       <c r="C277" t="n">
@@ -4873,11 +4873,11 @@
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>481</v>
+        <v>387</v>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>come viene classificata il leopardo delle nevi</t>
+          <t>come erano costruite le piramidi egizie</t>
         </is>
       </c>
       <c r="C278" t="n">
@@ -4889,75 +4889,75 @@
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>481</v>
+        <v>387</v>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>come viene classificato il leopardo delle nevi</t>
+          <t>cosa possiamo fare per salvare gli animali a rischio di estintione</t>
         </is>
       </c>
       <c r="C279" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D279" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>481</v>
+        <v>387</v>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>come viene classificato il leopardo delle nevi?</t>
+          <t>dove si trova la piramide di cheope</t>
         </is>
       </c>
       <c r="C280" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D280" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>481</v>
+        <v>387</v>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>quante specie di leopardi delle nevi esistono</t>
+          <t>quale la piramide egizia piu alta</t>
         </is>
       </c>
       <c r="C281" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D281" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>482</v>
+        <v>387</v>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>come aiutare gli animali in via di estinzione?</t>
+          <t>quanto ÃƒÂ¨ alta la tomba del padre di micerino</t>
         </is>
       </c>
       <c r="C282" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D282" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>482</v>
+        <v>387</v>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>come viene classificato il leopardo delle nevi ?</t>
+          <t>il leopardo delle nevi e invertebrato o vertebrato</t>
         </is>
       </c>
       <c r="C283" t="n">
@@ -4969,11 +4969,11 @@
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>482</v>
+        <v>387</v>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>quanti esemplari sono  rimasti di fantasma delle montagne?</t>
+          <t>come possiamo aiutare gli animali in estinzione</t>
         </is>
       </c>
       <c r="C284" t="n">
@@ -4985,27 +4985,27 @@
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>483</v>
+        <v>387</v>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>quali animali sono in via di estinzione</t>
+          <t>quanti sono i fantasmi delle montagne</t>
         </is>
       </c>
       <c r="C285" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D285" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
-        <v>484</v>
+        <v>387</v>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>come possiamo salvare gli animali quasi estinti</t>
+          <t>tre animal a rischio estinzione</t>
         </is>
       </c>
       <c r="C286" t="n">
@@ -5017,11 +5017,11 @@
     </row>
     <row r="287">
       <c r="A287" t="n">
-        <v>484</v>
+        <v>388</v>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>quanti sono gli esemplari di leopardo delle nevi</t>
+          <t>vulcano attivo piu atlantico</t>
         </is>
       </c>
       <c r="C287" t="n">
@@ -5033,11 +5033,11 @@
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>486</v>
+        <v>388</v>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>come venivano costruite le piramidi egizie</t>
+          <t>come si sviluppa un tornado</t>
         </is>
       </c>
       <c r="C288" t="n">
@@ -5049,11 +5049,11 @@
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>486</v>
+        <v>388</v>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>dove si trova la piramide di cheope</t>
+          <t>il mostro nero tornado che cos ÃƒÂ¨</t>
         </is>
       </c>
       <c r="C289" t="n">
@@ -5065,11 +5065,11 @@
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>486</v>
+        <v>389</v>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>quanto ÃƒÂ¨ alta la tomba del padre di micerino</t>
+          <t>Micerino</t>
         </is>
       </c>
       <c r="C290" t="n">
@@ -5081,11 +5081,11 @@
     </row>
     <row r="291">
       <c r="A291" t="n">
-        <v>487</v>
+        <v>389</v>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>come si sviluppa un tornado</t>
+          <t>come si fa una piramide egizia</t>
         </is>
       </c>
       <c r="C291" t="n">
@@ -5097,11 +5097,11 @@
     </row>
     <row r="292">
       <c r="A292" t="n">
-        <v>487</v>
+        <v>389</v>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>altri nomi del tornado</t>
+          <t>dove si trova la piramide di cheope</t>
         </is>
       </c>
       <c r="C292" t="n">
@@ -5113,27 +5113,27 @@
     </row>
     <row r="293">
       <c r="A293" t="n">
-        <v>487</v>
+        <v>389</v>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>mostro nero</t>
+          <t>qual ÃƒÂ© la piramide egizia piu alta</t>
         </is>
       </c>
       <c r="C293" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D293" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
-        <v>487</v>
+        <v>389</v>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>quando ÃƒÂ¨ avvenuto il mostro nero</t>
+          <t>quanto ÃƒÂ¨ alta la tomba del padre di  micerino</t>
         </is>
       </c>
       <c r="C294" t="n">
@@ -5145,11 +5145,11 @@
     </row>
     <row r="295">
       <c r="A295" t="n">
-        <v>487</v>
+        <v>389</v>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>sinonimi del tornado</t>
+          <t>quanto ÃƒÂ¨ alta la tomba del padre micerino</t>
         </is>
       </c>
       <c r="C295" t="n">
@@ -5161,27 +5161,27 @@
     </row>
     <row r="296">
       <c r="A296" t="n">
-        <v>487</v>
+        <v>389</v>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>velocitÃƒÂ  massima del tornado</t>
+          <t>quanto ÃƒÂ¨ alta la tomba di micerino</t>
         </is>
       </c>
       <c r="C296" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D296" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
-        <v>372</v>
+        <v>389</v>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>come si formano i vulcani</t>
+          <t>quanto ÃƒÂ©l alta la tomba di micerino</t>
         </is>
       </c>
       <c r="C297" t="n">
@@ -5193,11 +5193,11 @@
     </row>
     <row r="298">
       <c r="A298" t="n">
-        <v>372</v>
+        <v>389</v>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>in quale stato si trova il vulcano piÃƒÂ¹ piccolo</t>
+          <t>cosa possiamo fare per aiutare le specie in estinzione</t>
         </is>
       </c>
       <c r="C298" t="n">
@@ -5209,75 +5209,75 @@
     </row>
     <row r="299">
       <c r="A299" t="n">
-        <v>377</v>
+        <v>389</v>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>come viene classificato il leopardo delle nevi</t>
+          <t>quanti esemplari di leopardo delle nevi sono rimasti</t>
         </is>
       </c>
       <c r="C299" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D299" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
-        <v>377</v>
+        <v>470</v>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>cosa possiamo fare per aiutare le specie in via di estinzione</t>
+          <t>esemplari fantasma delle montagne</t>
         </is>
       </c>
       <c r="C300" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D300" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="n">
-        <v>377</v>
+        <v>470</v>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>quanti esemplari rimangono di leopardo delle nevi</t>
+          <t>animali a rischio di estinzione</t>
         </is>
       </c>
       <c r="C301" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D301" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="n">
-        <v>377</v>
+        <v>470</v>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>trova tre animali a rischio di estinzione</t>
+          <t>azioni per evitare estinzione degli animali</t>
         </is>
       </c>
       <c r="C302" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D302" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="n">
-        <v>379</v>
+        <v>470</v>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>come si formano i vulcani</t>
+          <t>la classificazione del leopardo delle nevi</t>
         </is>
       </c>
       <c r="C303" t="n">
@@ -5289,11 +5289,11 @@
     </row>
     <row r="304">
       <c r="A304" t="n">
-        <v>379</v>
+        <v>470</v>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>in quale stato si trova il vulcano piÃƒÂ¹ piccolo</t>
+          <t>quali sono  gli esemplari rimasti di fantasma delle nevi</t>
         </is>
       </c>
       <c r="C304" t="n">
@@ -5305,27 +5305,27 @@
     </row>
     <row r="305">
       <c r="A305" t="n">
-        <v>381</v>
+        <v>470</v>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>come si trova un punto su una mappa</t>
+          <t>quanti sono gli esemplari rimasti di fantasma delle nevi</t>
         </is>
       </c>
       <c r="C305" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D305" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="n">
-        <v>382</v>
+        <v>470</v>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>come si sviluppa un tornado</t>
+          <t>tigre bianca</t>
         </is>
       </c>
       <c r="C306" t="n">
@@ -5337,17 +5337,625 @@
     </row>
     <row r="307">
       <c r="A307" t="n">
+        <v>471</v>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>come si formano i vulcani</t>
+        </is>
+      </c>
+      <c r="C307" t="n">
+        <v>10</v>
+      </c>
+      <c r="D307" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="n">
+        <v>471</v>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>come si ÃƒÂ© formato un vulcano</t>
+        </is>
+      </c>
+      <c r="C308" t="n">
+        <v>8</v>
+      </c>
+      <c r="D308" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="n">
+        <v>471</v>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>in quale stato si trova il vulcano piÃƒÂ¹ piccolo</t>
+        </is>
+      </c>
+      <c r="C309" t="n">
+        <v>10</v>
+      </c>
+      <c r="D309" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="n">
+        <v>471</v>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>qual ÃƒÂ¨ il vulcano attivo piÃƒÂ¹ antico</t>
+        </is>
+      </c>
+      <c r="C310" t="n">
+        <v>10</v>
+      </c>
+      <c r="D310" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="n">
+        <v>475</v>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>animali a rischio di estinzione</t>
+        </is>
+      </c>
+      <c r="C311" t="n">
+        <v>8</v>
+      </c>
+      <c r="D311" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="n">
+        <v>475</v>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>come aiutare gli animali in via di estinzion^?</t>
+        </is>
+      </c>
+      <c r="C312" t="n">
+        <v>10</v>
+      </c>
+      <c r="D312" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="n">
+        <v>475</v>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>come viene classificato il leopardo delle nevi ?</t>
+        </is>
+      </c>
+      <c r="C313" t="n">
+        <v>10</v>
+      </c>
+      <c r="D313" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="n">
+        <v>475</v>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>come viene classificato il leopardo delle nevi?</t>
+        </is>
+      </c>
+      <c r="C314" t="n">
+        <v>8</v>
+      </c>
+      <c r="D314" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="n">
+        <v>475</v>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>cosa possiamo fare per aiutare la specie in estinzione?</t>
+        </is>
+      </c>
+      <c r="C315" t="n">
+        <v>10</v>
+      </c>
+      <c r="D315" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="n">
+        <v>476</v>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>quale tipologia di eruzione provoca piÃƒÂ¹ danni?</t>
+        </is>
+      </c>
+      <c r="C316" t="n">
+        <v>10</v>
+      </c>
+      <c r="D316" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="n">
+        <v>479</v>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>che velcitÃƒÂ  puÃƒÂ² raggiungere un tornado</t>
+        </is>
+      </c>
+      <c r="C317" t="n">
+        <v>10</v>
+      </c>
+      <c r="D317" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="n">
+        <v>479</v>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>come si forma un tornado</t>
+        </is>
+      </c>
+      <c r="C318" t="n">
+        <v>9</v>
+      </c>
+      <c r="D318" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="n">
+        <v>479</v>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>dove e quando avvenÃƒÂ¬ il mostro nero( tornado)</t>
+        </is>
+      </c>
+      <c r="C319" t="n">
+        <v>8</v>
+      </c>
+      <c r="D319" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="n">
+        <v>482</v>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>come aiutare gli animali in via di estinzione?</t>
+        </is>
+      </c>
+      <c r="C320" t="n">
+        <v>10</v>
+      </c>
+      <c r="D320" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="n">
+        <v>482</v>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>come viene classificato il leopardo delle nevi ?</t>
+        </is>
+      </c>
+      <c r="C321" t="n">
+        <v>10</v>
+      </c>
+      <c r="D321" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="n">
+        <v>482</v>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>quanti esemplari sono  rimasti di fantasma delle montagne?</t>
+        </is>
+      </c>
+      <c r="C322" t="n">
+        <v>10</v>
+      </c>
+      <c r="D322" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="n">
+        <v>483</v>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>quali animali sono in via di estinzione</t>
+        </is>
+      </c>
+      <c r="C323" t="n">
+        <v>8</v>
+      </c>
+      <c r="D323" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="n">
+        <v>484</v>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>come possiamo salvare gli animali quasi estinti</t>
+        </is>
+      </c>
+      <c r="C324" t="n">
+        <v>8</v>
+      </c>
+      <c r="D324" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="n">
+        <v>484</v>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>quanti sono gli esemplari di leopardo delle nevi</t>
+        </is>
+      </c>
+      <c r="C325" t="n">
+        <v>8</v>
+      </c>
+      <c r="D325" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="n">
+        <v>486</v>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>come venivano costruite le piramidi egizie</t>
+        </is>
+      </c>
+      <c r="C326" t="n">
+        <v>8</v>
+      </c>
+      <c r="D326" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="n">
+        <v>486</v>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>dove si trova la piramide di cheope</t>
+        </is>
+      </c>
+      <c r="C327" t="n">
+        <v>10</v>
+      </c>
+      <c r="D327" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="n">
+        <v>486</v>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>quanto ÃƒÂ¨ alta la tomba del padre di micerino</t>
+        </is>
+      </c>
+      <c r="C328" t="n">
+        <v>8</v>
+      </c>
+      <c r="D328" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="n">
+        <v>487</v>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>come si sviluppa un tornado</t>
+        </is>
+      </c>
+      <c r="C329" t="n">
+        <v>8</v>
+      </c>
+      <c r="D329" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="n">
+        <v>487</v>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>altri nomi del tornado</t>
+        </is>
+      </c>
+      <c r="C330" t="n">
+        <v>10</v>
+      </c>
+      <c r="D330" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="n">
+        <v>487</v>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>mostro nero</t>
+        </is>
+      </c>
+      <c r="C331" t="n">
+        <v>7</v>
+      </c>
+      <c r="D331" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="n">
+        <v>487</v>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>quando ÃƒÂ¨ avvenuto il mostro nero</t>
+        </is>
+      </c>
+      <c r="C332" t="n">
+        <v>10</v>
+      </c>
+      <c r="D332" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="n">
+        <v>487</v>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>sinonimi del tornado</t>
+        </is>
+      </c>
+      <c r="C333" t="n">
+        <v>10</v>
+      </c>
+      <c r="D333" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="n">
+        <v>487</v>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>velocitÃƒÂ  massima del tornado</t>
+        </is>
+      </c>
+      <c r="C334" t="n">
+        <v>8</v>
+      </c>
+      <c r="D334" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="n">
+        <v>372</v>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>come si formano i vulcani</t>
+        </is>
+      </c>
+      <c r="C335" t="n">
+        <v>10</v>
+      </c>
+      <c r="D335" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="n">
+        <v>372</v>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>in quale stato si trova il vulcano piÃƒÂ¹ piccolo</t>
+        </is>
+      </c>
+      <c r="C336" t="n">
+        <v>10</v>
+      </c>
+      <c r="D336" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="n">
+        <v>377</v>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>come viene classificato il leopardo delle nevi</t>
+        </is>
+      </c>
+      <c r="C337" t="n">
+        <v>10</v>
+      </c>
+      <c r="D337" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="n">
+        <v>377</v>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>cosa possiamo fare per aiutare le specie in via di estinzione</t>
+        </is>
+      </c>
+      <c r="C338" t="n">
+        <v>10</v>
+      </c>
+      <c r="D338" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="n">
+        <v>377</v>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>quanti esemplari rimangono di leopardo delle nevi</t>
+        </is>
+      </c>
+      <c r="C339" t="n">
+        <v>10</v>
+      </c>
+      <c r="D339" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="n">
+        <v>377</v>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>trova tre animali a rischio di estinzione</t>
+        </is>
+      </c>
+      <c r="C340" t="n">
+        <v>10</v>
+      </c>
+      <c r="D340" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="n">
+        <v>379</v>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>come si formano i vulcani</t>
+        </is>
+      </c>
+      <c r="C341" t="n">
+        <v>10</v>
+      </c>
+      <c r="D341" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="n">
+        <v>379</v>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>in quale stato si trova il vulcano piÃƒÂ¹ piccolo</t>
+        </is>
+      </c>
+      <c r="C342" t="n">
+        <v>10</v>
+      </c>
+      <c r="D342" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="n">
+        <v>381</v>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>come si trova un punto su una mappa</t>
+        </is>
+      </c>
+      <c r="C343" t="n">
+        <v>6</v>
+      </c>
+      <c r="D343" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="n">
         <v>382</v>
       </c>
-      <c r="B307" t="inlineStr">
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>come si sviluppa un tornado</t>
+        </is>
+      </c>
+      <c r="C344" t="n">
+        <v>10</v>
+      </c>
+      <c r="D344" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="n">
+        <v>382</v>
+      </c>
+      <c r="B345" t="inlineStr">
         <is>
           <t>il mostro nero e un tornado</t>
         </is>
       </c>
-      <c r="C307" t="n">
-        <v>10</v>
-      </c>
-      <c r="D307" t="n">
+      <c r="C345" t="n">
+        <v>10</v>
+      </c>
+      <c r="D345" t="n">
         <v>10</v>
       </c>
     </row>
